--- a/medicine/Enfance/Heder/Heder.xlsx
+++ b/medicine/Enfance/Heder/Heder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le heder[1],[2], [3],[4],(en)[5] (hébreu חדר, « chambre ») est une école élémentaire traditionnelle où sont enseignés les rudiments de judaïsme et d'hébreu. Elle occupe une place importante dans le folklore juif, particulièrement dans la culture yiddish, où elle symbolise le lieu par excellence d'éducation juive.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le heder (en) (hébreu חדר, « chambre ») est une école élémentaire traditionnelle où sont enseignés les rudiments de judaïsme et d'hébreu. Elle occupe une place importante dans le folklore juif, particulièrement dans la culture yiddish, où elle symbolise le lieu par excellence d'éducation juive.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le heder était une institution répandue dans toute l'Europe jusqu'à la fin du XVIIIe siècle. Les leçons se donnaient dans la maison du melamed, salarié par la communauté juive ou plus souvent un groupe de parents. L'enseignement était traditionnellement dispensé aux seuls garçons - l'éducation des filles étant seulement assurée par leurs mères à domicile. Les groupes comprenaient des enfants de différents âges.
 Les enfants entraient généralement au heder à 5 ans. Après avoir appris l'alphabet hébreu et à le lire (avec la prononciation ashkénaze, qui était la même que celle du yiddish, la lingua franca des Juifs d'Europe du nord et de l'est depuis le Moyen Âge), ils commençaient à étudier la Torah, en commençant par Vayikra, puis le Talmud (Mishna, Gemara, et commentaires rabbiniques ultérieurs). La lecture à voix haute et l'apprentissage des leçons par cœur étaient les principales techniques d'étude. La fin de l'apprentissage d'un élève au heder, à l'âge de 13 ans, était célébré par sa bar mitzvah.
@@ -552,7 +566,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les pays occidentaux, les enfants sont parfois envoyés au heder après les heures de cours d'école. Le heder y a toutefois été le plus souvent remplacé par le Talmud Torah, qui fonctionne comme une école traditionnelle, particulièrement dans les milieux orthodoxes américains et en Israël.
 </t>
